--- a/testData/LoginData.xlsx
+++ b/testData/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\15-Sept-2023batch\opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajuneeth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315BD60-ACC2-4D41-9A18-B0F87EEF7991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D0A81-A83D-4F2D-A46A-D98DFBCE6793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="17589" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>pavanoltraining@gmail.com</t>
-  </si>
-  <si>
     <t>test@123</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>pavanol123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -491,17 +491,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.23046875" customWidth="1"/>
-    <col min="2" max="2" width="17.3046875" customWidth="1"/>
-    <col min="3" max="3" width="18.15234375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,18 +512,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -556,12 +556,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -569,15 +569,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>